--- a/Ops_Flags_Clocks.xlsx
+++ b/Ops_Flags_Clocks.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thepa\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\the-server\05-SHOP A ALEX\00-PROJETS ÉLECTRONIQUES\8bit CPU\PRP-6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F739C544-B7E5-4415-9D38-1A9C2EFD7FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D8722-13E9-4A06-A2E1-5DF655F8E7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E9986C8-43E6-4F00-8886-0C1B88BC4BDA}"/>
+    <workbookView xWindow="0" yWindow="163" windowWidth="12051" windowHeight="10988" activeTab="1" xr2:uid="{6E9986C8-43E6-4F00-8886-0C1B88BC4BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>Control</t>
   </si>
@@ -237,6 +238,207 @@
   </si>
   <si>
     <t>Arithmetic Logical Unit</t>
+  </si>
+  <si>
+    <t>DL/DB</t>
+  </si>
+  <si>
+    <t>DL/ADH</t>
+  </si>
+  <si>
+    <t>DL/ADL</t>
+  </si>
+  <si>
+    <t>0/ADH0</t>
+  </si>
+  <si>
+    <t>0/ADH(1-7)</t>
+  </si>
+  <si>
+    <t>ADH/ABH</t>
+  </si>
+  <si>
+    <t>PCH/DB</t>
+  </si>
+  <si>
+    <t>ADL/ABL</t>
+  </si>
+  <si>
+    <t>PCL/PCL</t>
+  </si>
+  <si>
+    <t>ADL/PCL</t>
+  </si>
+  <si>
+    <t>I/PC</t>
+  </si>
+  <si>
+    <t>PCL/DB</t>
+  </si>
+  <si>
+    <t>PCL/ADL</t>
+  </si>
+  <si>
+    <t>PCH/PCH</t>
+  </si>
+  <si>
+    <t>ADH/PCH</t>
+  </si>
+  <si>
+    <t>PCH/ADH</t>
+  </si>
+  <si>
+    <t>SB/ADH</t>
+  </si>
+  <si>
+    <t>SD/DB</t>
+  </si>
+  <si>
+    <t>0/ADL0</t>
+  </si>
+  <si>
+    <t>0/ADL2</t>
+  </si>
+  <si>
+    <t>S/ADL</t>
+  </si>
+  <si>
+    <t>SB/S</t>
+  </si>
+  <si>
+    <t>S/S</t>
+  </si>
+  <si>
+    <t>S/SB</t>
+  </si>
+  <si>
+    <t>!DB/ADD</t>
+  </si>
+  <si>
+    <t>I/ADOC</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>ADD/SB(0-6)</t>
+  </si>
+  <si>
+    <t>ADD/SB(7)</t>
+  </si>
+  <si>
+    <t>SB/AC</t>
+  </si>
+  <si>
+    <t>AC/DB</t>
+  </si>
+  <si>
+    <t>AC/SB</t>
+  </si>
+  <si>
+    <t>SB/X</t>
+  </si>
+  <si>
+    <t>X/SB</t>
+  </si>
+  <si>
+    <t>SB/Y</t>
+  </si>
+  <si>
+    <t>Y/SB</t>
+  </si>
+  <si>
+    <t>P1DB</t>
+  </si>
+  <si>
+    <t>DB0/C</t>
+  </si>
+  <si>
+    <t>IR5/C</t>
+  </si>
+  <si>
+    <t>ACR/C</t>
+  </si>
+  <si>
+    <t>DB1/Z</t>
+  </si>
+  <si>
+    <t>DBZ/Z</t>
+  </si>
+  <si>
+    <t>IR5/I</t>
+  </si>
+  <si>
+    <t>DB2/I</t>
+  </si>
+  <si>
+    <t>DB3/D</t>
+  </si>
+  <si>
+    <t>IR5/D</t>
+  </si>
+  <si>
+    <t>DB6/V</t>
+  </si>
+  <si>
+    <t>AVR/V</t>
+  </si>
+  <si>
+    <t>I/V</t>
+  </si>
+  <si>
+    <t>DB7/N</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
   </si>
 </sst>
 </file>
@@ -308,6 +510,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>703432</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>80862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Encre 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767FA22D-DCCD-9CA4-6C4A-85E7779DC9EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="52432346" y="39600"/>
+            <a:ext cx="79560" cy="33480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Encre 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767FA22D-DCCD-9CA4-6C4A-85E7779DC9EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="52423706" y="30600"/>
+              <a:ext cx="97200" cy="51120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-09T03:11:48.649"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">220 93 512,'-47'-8'0,"-9"0"-32,33 5 64,3-9-192,-2-7 32,1-5 64,-9 5 32</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,23 +908,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1649639A-1A57-42F4-B5F4-D0F3602C6BF1}">
   <dimension ref="A4:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" customWidth="1"/>
+    <col min="5" max="5" width="19.69140625" customWidth="1"/>
+    <col min="6" max="6" width="50.69140625" customWidth="1"/>
+    <col min="9" max="9" width="20.15234375" customWidth="1"/>
+    <col min="10" max="10" width="43.15234375" customWidth="1"/>
+    <col min="12" max="12" width="28.15234375" customWidth="1"/>
+    <col min="13" max="13" width="15.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -657,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -689,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -721,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -753,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -770,7 +1069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -787,7 +1086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -804,7 +1103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>23</v>
       </c>
@@ -815,7 +1114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>27</v>
       </c>
@@ -826,7 +1125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -837,7 +1136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>31</v>
       </c>
@@ -848,7 +1147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>33</v>
       </c>
@@ -859,7 +1158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>37</v>
       </c>
@@ -870,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>45</v>
       </c>
@@ -881,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>46</v>
       </c>
@@ -892,7 +1191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>56</v>
       </c>
@@ -907,4 +1206,263 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34622BB9-3CC2-41D5-9F90-EDE10F307FEA}">
+  <dimension ref="B4:BV7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1:BV1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="67" max="74" width="5.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:74" x14ac:dyDescent="0.4">
+      <c r="BO4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:74" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:74" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ops_Flags_Clocks.xlsx
+++ b/Ops_Flags_Clocks.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thepa\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\the-server\05-SHOP A ALEX\00-PROJETS ÉLECTRONIQUES\8bit CPU\PRP-6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F739C544-B7E5-4415-9D38-1A9C2EFD7FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9C486-611E-431D-9513-C45B94F7E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E9986C8-43E6-4F00-8886-0C1B88BC4BDA}"/>
+    <workbookView xWindow="1575" yWindow="3435" windowWidth="20220" windowHeight="10245" activeTab="2" xr2:uid="{6E9986C8-43E6-4F00-8886-0C1B88BC4BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
   <si>
     <t>Control</t>
   </si>
@@ -237,13 +239,298 @@
   </si>
   <si>
     <t>Arithmetic Logical Unit</t>
+  </si>
+  <si>
+    <t>DL/DB</t>
+  </si>
+  <si>
+    <t>DL/ADH</t>
+  </si>
+  <si>
+    <t>DL/ADL</t>
+  </si>
+  <si>
+    <t>0/ADH0</t>
+  </si>
+  <si>
+    <t>0/ADH(1-7)</t>
+  </si>
+  <si>
+    <t>ADH/ABH</t>
+  </si>
+  <si>
+    <t>PCH/DB</t>
+  </si>
+  <si>
+    <t>ADL/ABL</t>
+  </si>
+  <si>
+    <t>PCL/PCL</t>
+  </si>
+  <si>
+    <t>ADL/PCL</t>
+  </si>
+  <si>
+    <t>I/PC</t>
+  </si>
+  <si>
+    <t>PCL/DB</t>
+  </si>
+  <si>
+    <t>PCL/ADL</t>
+  </si>
+  <si>
+    <t>PCH/PCH</t>
+  </si>
+  <si>
+    <t>ADH/PCH</t>
+  </si>
+  <si>
+    <t>PCH/ADH</t>
+  </si>
+  <si>
+    <t>SB/ADH</t>
+  </si>
+  <si>
+    <t>SD/DB</t>
+  </si>
+  <si>
+    <t>0/ADL0</t>
+  </si>
+  <si>
+    <t>0/ADL2</t>
+  </si>
+  <si>
+    <t>S/ADL</t>
+  </si>
+  <si>
+    <t>SB/S</t>
+  </si>
+  <si>
+    <t>S/S</t>
+  </si>
+  <si>
+    <t>S/SB</t>
+  </si>
+  <si>
+    <t>!DB/ADD</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>ADD/SB(0-6)</t>
+  </si>
+  <si>
+    <t>ADD/SB(7)</t>
+  </si>
+  <si>
+    <t>SB/AC</t>
+  </si>
+  <si>
+    <t>AC/DB</t>
+  </si>
+  <si>
+    <t>AC/SB</t>
+  </si>
+  <si>
+    <t>SB/X</t>
+  </si>
+  <si>
+    <t>X/SB</t>
+  </si>
+  <si>
+    <t>SB/Y</t>
+  </si>
+  <si>
+    <t>Y/SB</t>
+  </si>
+  <si>
+    <t>P1DB</t>
+  </si>
+  <si>
+    <t>IR5/C</t>
+  </si>
+  <si>
+    <t>ACR/C</t>
+  </si>
+  <si>
+    <t>DB1/Z</t>
+  </si>
+  <si>
+    <t>DBZ/Z</t>
+  </si>
+  <si>
+    <t>IR5/I</t>
+  </si>
+  <si>
+    <t>DB2/I</t>
+  </si>
+  <si>
+    <t>DB3/D</t>
+  </si>
+  <si>
+    <t>IR5/D</t>
+  </si>
+  <si>
+    <t>DB6/V</t>
+  </si>
+  <si>
+    <t>AVR/V</t>
+  </si>
+  <si>
+    <t>I/V</t>
+  </si>
+  <si>
+    <t>DB7/N</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>adl</t>
+  </si>
+  <si>
+    <t>adh</t>
+  </si>
+  <si>
+    <t>a &amp; b input</t>
+  </si>
+  <si>
+    <t>I/ADDC</t>
+  </si>
+  <si>
+    <t>alu</t>
+  </si>
+  <si>
+    <t>pcl</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>addr reg</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>3bits</t>
+  </si>
+  <si>
+    <t>8bits</t>
+  </si>
+  <si>
+    <t>2bits</t>
+  </si>
+  <si>
+    <t>DB0/C</t>
+  </si>
+  <si>
+    <t>2 bits</t>
+  </si>
+  <si>
+    <t>7 bits</t>
+  </si>
+  <si>
+    <t>0/V</t>
+  </si>
+  <si>
+    <t>3 bits</t>
+  </si>
+  <si>
+    <t>0/ADD (A)</t>
+  </si>
+  <si>
+    <t>SB/ADD (A)</t>
+  </si>
+  <si>
+    <t>!DB/ADD (B)</t>
+  </si>
+  <si>
+    <t>DB/ADD (B)</t>
+  </si>
+  <si>
+    <t>ADL/ADD (B)</t>
+  </si>
+  <si>
+    <t>Load 0 in A</t>
+  </si>
+  <si>
+    <t>Load A in Acc</t>
+  </si>
+  <si>
+    <t>Load Acc in B</t>
+  </si>
+  <si>
+    <t>8 bits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +545,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +572,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -281,16 +653,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -308,6 +888,195 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>703432</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>80862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Encre 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767FA22D-DCCD-9CA4-6C4A-85E7779DC9EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="52432346" y="39600"/>
+            <a:ext cx="79560" cy="33480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Encre 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767FA22D-DCCD-9CA4-6C4A-85E7779DC9EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="52423706" y="30600"/>
+              <a:ext cx="97200" cy="51120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>484817</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>134966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>490937</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145046</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Encre 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D6AFC2-F663-2ABC-35F1-C80ECCF4B0D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2052360" y="505080"/>
+            <a:ext cx="6120" cy="10080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Encre 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D6AFC2-F663-2ABC-35F1-C80ECCF4B0D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2043360" y="496080"/>
+              <a:ext cx="23760" cy="27720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-09T03:11:48.649"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">220 93 512,'-47'-8'0,"-9"0"-32,33 5 64,3-9-192,-2-7 32,1-5 64,-9 5 32</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-13T03:37:05.204"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">16 8 4224,'-8'-8'1664,"3"16"-1312,2 3-1824,3-3-960</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1649639A-1A57-42F4-B5F4-D0F3602C6BF1}">
   <dimension ref="A4:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -907,4 +1676,2056 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34622BB9-3CC2-41D5-9F90-EDE10F307FEA}">
+  <dimension ref="B2:BW93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="68" max="75" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="C3" s="16">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16">
+        <v>7</v>
+      </c>
+      <c r="E3" s="16">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16">
+        <v>8</v>
+      </c>
+      <c r="I3" s="16">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3" s="16">
+        <v>2</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="BP4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+    </row>
+    <row r="7" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="17"/>
+      <c r="G29" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="21"/>
+      <c r="G35" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="19"/>
+      <c r="G42" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="G73" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F77" s="17"/>
+      <c r="G77" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" s="19"/>
+      <c r="G82" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="21"/>
+      <c r="G83" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867D4C9B-5469-4F44-A4F3-50218C4BAD49}">
+  <dimension ref="B3:AQ84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="43" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="17"/>
+      <c r="G20" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="21"/>
+      <c r="G26" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="19"/>
+      <c r="G33" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="17"/>
+      <c r="G68" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F72" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="G73" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="L3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>